--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H2">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.414045</v>
+        <v>17.125047</v>
       </c>
       <c r="N2">
-        <v>46.242135</v>
+        <v>51.375141</v>
       </c>
       <c r="O2">
-        <v>0.5885168832403832</v>
+        <v>0.6137494773138626</v>
       </c>
       <c r="P2">
-        <v>0.5885168832403832</v>
+        <v>0.6137494773138626</v>
       </c>
       <c r="Q2">
-        <v>4.498003299540001</v>
+        <v>9.15818971815</v>
       </c>
       <c r="R2">
-        <v>40.48202969586001</v>
+        <v>82.42370746335001</v>
       </c>
       <c r="S2">
-        <v>0.06941310774952325</v>
+        <v>0.120799440225763</v>
       </c>
       <c r="T2">
-        <v>0.06941310774952325</v>
+        <v>0.120799440225763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H3">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.020606</v>
       </c>
       <c r="O3">
-        <v>0.254799321953965</v>
+        <v>0.2391747492820853</v>
       </c>
       <c r="P3">
-        <v>0.254799321953965</v>
+        <v>0.2391747492820853</v>
       </c>
       <c r="Q3">
-        <v>1.947417692690667</v>
+        <v>3.568895470677778</v>
       </c>
       <c r="R3">
-        <v>17.526759234216</v>
+        <v>32.1200592361</v>
       </c>
       <c r="S3">
-        <v>0.03005251555726723</v>
+        <v>0.0470748683255303</v>
       </c>
       <c r="T3">
-        <v>0.03005251555726723</v>
+        <v>0.04707486832553029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H4">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.311275</v>
       </c>
       <c r="O4">
-        <v>0.1566837948056518</v>
+        <v>0.147075773404052</v>
       </c>
       <c r="P4">
-        <v>0.1566837948056518</v>
+        <v>0.147075773404052</v>
       </c>
       <c r="Q4">
-        <v>1.197525926766666</v>
+        <v>2.194621560694444</v>
       </c>
       <c r="R4">
-        <v>10.7777333409</v>
+        <v>19.75159404625</v>
       </c>
       <c r="S4">
-        <v>0.01848019902431001</v>
+        <v>0.02894775760256172</v>
       </c>
       <c r="T4">
-        <v>0.01848019902431001</v>
+        <v>0.02894775760256172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.542198</v>
       </c>
       <c r="I5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.414045</v>
+        <v>17.125047</v>
       </c>
       <c r="N5">
-        <v>46.242135</v>
+        <v>51.375141</v>
       </c>
       <c r="O5">
-        <v>0.5885168832403832</v>
+        <v>0.6137494773138626</v>
       </c>
       <c r="P5">
-        <v>0.5885168832403832</v>
+        <v>0.6137494773138626</v>
       </c>
       <c r="Q5">
-        <v>7.923836456970001</v>
+        <v>8.803404411101999</v>
       </c>
       <c r="R5">
-        <v>71.31452811273</v>
+        <v>79.230639699918</v>
       </c>
       <c r="S5">
-        <v>0.1222805047371815</v>
+        <v>0.1161197089894919</v>
       </c>
       <c r="T5">
-        <v>0.1222805047371815</v>
+        <v>0.1161197089894919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.542198</v>
       </c>
       <c r="I6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.020606</v>
       </c>
       <c r="O6">
-        <v>0.254799321953965</v>
+        <v>0.2391747492820853</v>
       </c>
       <c r="P6">
-        <v>0.254799321953965</v>
+        <v>0.2391747492820853</v>
       </c>
       <c r="Q6">
         <v>3.430637614665334</v>
@@ -818,10 +818,10 @@
         <v>30.875738531988</v>
       </c>
       <c r="S6">
-        <v>0.0529415392871511</v>
+        <v>0.04525120315510715</v>
       </c>
       <c r="T6">
-        <v>0.0529415392871511</v>
+        <v>0.04525120315510715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.542198</v>
       </c>
       <c r="I7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.311275</v>
       </c>
       <c r="O7">
-        <v>0.1566837948056518</v>
+        <v>0.147075773404052</v>
       </c>
       <c r="P7">
-        <v>0.1566837948056518</v>
+        <v>0.147075773404052</v>
       </c>
       <c r="Q7">
         <v>2.109602631383333</v>
@@ -880,10 +880,10 @@
         <v>18.98642368245</v>
       </c>
       <c r="S7">
-        <v>0.03255535067656899</v>
+        <v>0.0278263308375077</v>
       </c>
       <c r="T7">
-        <v>0.03255535067656899</v>
+        <v>0.0278263308375077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.004723</v>
       </c>
       <c r="I8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.414045</v>
+        <v>17.125047</v>
       </c>
       <c r="N8">
-        <v>46.242135</v>
+        <v>51.375141</v>
       </c>
       <c r="O8">
-        <v>0.5885168832403832</v>
+        <v>0.6137494773138626</v>
       </c>
       <c r="P8">
-        <v>0.5885168832403832</v>
+        <v>0.6137494773138626</v>
       </c>
       <c r="Q8">
-        <v>25.71434184484501</v>
+        <v>28.568705532327</v>
       </c>
       <c r="R8">
-        <v>231.429076603605</v>
+        <v>257.118349790943</v>
       </c>
       <c r="S8">
-        <v>0.3968232707536785</v>
+        <v>0.3768303280986078</v>
       </c>
       <c r="T8">
-        <v>0.3968232707536785</v>
+        <v>0.3768303280986077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.004723</v>
       </c>
       <c r="I9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>20.020606</v>
       </c>
       <c r="O9">
-        <v>0.254799321953965</v>
+        <v>0.2391747492820853</v>
       </c>
       <c r="P9">
-        <v>0.254799321953965</v>
+        <v>0.2391747492820853</v>
       </c>
       <c r="Q9">
         <v>11.13306525801533</v>
@@ -1004,10 +1004,10 @@
         <v>100.197587322138</v>
       </c>
       <c r="S9">
-        <v>0.1718052671095467</v>
+        <v>0.1468486778014479</v>
       </c>
       <c r="T9">
-        <v>0.1718052671095467</v>
+        <v>0.1468486778014479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.004723</v>
       </c>
       <c r="I10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.311275</v>
       </c>
       <c r="O10">
-        <v>0.1566837948056518</v>
+        <v>0.147075773404052</v>
       </c>
       <c r="P10">
-        <v>0.1566837948056518</v>
+        <v>0.147075773404052</v>
       </c>
       <c r="Q10">
         <v>6.846057905758332</v>
@@ -1066,10 +1066,10 @@
         <v>61.614521151825</v>
       </c>
       <c r="S10">
-        <v>0.1056482451047728</v>
+        <v>0.09030168496398261</v>
       </c>
       <c r="T10">
-        <v>0.1056482451047728</v>
+        <v>0.0903016849639826</v>
       </c>
     </row>
   </sheetData>
